--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -1,57 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\regular\IntelliJ IDEA 2024.3\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Новая папка\java_lesson_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACDF29-0BCC-4CA9-BE51-D9014120AEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F794696B-5894-490C-829C-85D459D9F48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Videos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>BAACAgIAAyEFAASUM5ANAANEZ3BDCCbj7oIdoLPmfALjsifNwMoAArdVAAKlRIFLoBinWf-eZSk2BA</t>
-  </si>
-  <si>
-    <t>BAACAgIAAyEFAASUM5ANAANHZ3BDE4JMQiKB_M3R30HwRILP5joAArpVAAKlRIFLS-oEu4nra7E2BA</t>
-  </si>
-  <si>
-    <t>BAACAgIAAyEFAASUM5ANAANJZ3BDHujccTJDrgjiTAglftsZ2EgAAr1VAAKlRIFLIWX-fSv55ZM2BA</t>
-  </si>
-  <si>
-    <t>BAACAgIAAyEFAASUM5ANAANLZ3BDKjChVgK_6DkccjZK9dn3RzQAAstVAAKlRIFL5_ubxCLQqXc2BA</t>
-  </si>
-  <si>
-    <t>1-dars Botni telegramguruhga ulash</t>
-  </si>
-  <si>
-    <t>2-dars Takrorlash</t>
-  </si>
-  <si>
-    <t>3-dars Exception</t>
-  </si>
-  <si>
-    <t>4-dars Step bilan ishlash</t>
-  </si>
-  <si>
-    <t>BAACAgIAAyEFAASUM5ANAAIBbmd-E_0VddYb3qiaJkPdvx5_yfs6AALKWwACGFToS5_57N7I95mkNgQ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Video ID</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>BAACAgIAAyEFAASUM5ANAAIBiGeABfOhUDuxfps4IE0K_oWG9FJaAAK3VQACpUSBS3MqxEyHrJZ1NgQ</t>
+  </si>
+  <si>
+    <t>1-dars</t>
+  </si>
+  <si>
+    <t>BAACAgIAAyEFAASUM5ANAAIBiWeABfPtTQpbmz1SMT_0RC6uuRtaAAK6VQACpUSBS7eN9XHLTXibNgQ</t>
+  </si>
+  <si>
+    <t>2-dars</t>
+  </si>
+  <si>
+    <t>BAACAgIAAyEFAASUM5ANAAIBimeABfMn22rvo1-T1tysksDWV4RMAAK9VQACpUSBS2pF4igPmPKPNgQ</t>
+  </si>
+  <si>
+    <t>3-dars</t>
+  </si>
+  <si>
+    <t>BAACAgIAAyEFAASUM5ANAAIBi2eABfNV-IZMYuF7d2fxYJvoeJxEAALLVQACpUSBSzFLXMb-_bWjNgQ</t>
+  </si>
+  <si>
+    <t>4-dars</t>
+  </si>
+  <si>
+    <t>BAACAgIAAyEFAASUM5ANAAIBgmeABDeFC0lXrp_p-64vUuULsUzvAAKDbQACcagAAUjVnlvIKB2SijYE</t>
+  </si>
+  <si>
+    <t>5-dars Git</t>
+  </si>
+  <si>
+    <t>BAACAgIAAyEFAASUM5ANAAIBhWeABJU2GYgyxU_UJQJUq5Ga9iGMAAKIbQACcagAAUjrVuqVYw4ifzYE</t>
+  </si>
+  <si>
+    <t>6-dars Git davomi</t>
   </si>
 </sst>
 </file>
@@ -61,7 +74,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +136,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -135,7 +148,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -147,12 +160,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -182,12 +195,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -217,9 +247,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,28 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -398,10 +440,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -409,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -420,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,7 +473,32 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
